--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB095.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB095.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC58690-E1F5-4FCC-B7B7-1C7FD8758D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A92252-0D37-4172-8953-A11F0FBEDB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -472,10 +472,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>單位:平方公尺，填至小數點2位</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>主建物(層次)面積</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1084,6 +1080,10 @@
   </si>
   <si>
     <t xml:space="preserve">                    LEFT JOIN "CustMain" C  ON  C."CustUKey"  = O."OwnerCustUKey"</t>
+  </si>
+  <si>
+    <t>單位：平方公尺，填至小數點2位</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1816,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -1966,7 +1966,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1990,7 +1990,7 @@
       <c r="H9" s="31"/>
       <c r="I9" s="32"/>
       <c r="J9" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2080,7 +2080,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2110,7 +2110,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2140,7 +2140,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" ht="75.599999999999994" x14ac:dyDescent="0.3">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>26</v>
@@ -2170,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2199,7 +2199,7 @@
         <v>7</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2228,7 +2228,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2257,7 +2257,7 @@
         <v>9</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2286,7 +2286,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2315,7 +2315,7 @@
         <v>11</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2323,7 +2323,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>85</v>
@@ -2335,13 +2335,13 @@
         <v>36</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I21" s="32">
         <v>12</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2349,7 +2349,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>86</v>
@@ -2361,13 +2361,13 @@
         <v>36</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I22" s="32">
         <v>13</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="239.4" x14ac:dyDescent="0.3">
@@ -2375,7 +2375,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>87</v>
@@ -2387,13 +2387,13 @@
         <v>228</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I23" s="32">
         <v>14</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="138.6" x14ac:dyDescent="0.3">
@@ -2401,7 +2401,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>88</v>
@@ -2419,7 +2419,7 @@
         <v>15</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="138.6" x14ac:dyDescent="0.3">
@@ -2427,7 +2427,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>89</v>
@@ -2445,7 +2445,7 @@
         <v>16</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2453,7 +2453,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>90</v>
@@ -2465,13 +2465,13 @@
         <v>6</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I26" s="32">
         <v>17</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="50.4" x14ac:dyDescent="0.3">
@@ -2479,7 +2479,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>91</v>
@@ -2497,7 +2497,7 @@
         <v>18</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -2505,7 +2505,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>92</v>
@@ -2523,7 +2523,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="88.2" x14ac:dyDescent="0.3">
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>93</v>
@@ -2552,7 +2552,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2560,7 +2560,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>96</v>
@@ -2575,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>97</v>
+        <v>271</v>
       </c>
       <c r="H30" s="31" t="s">
         <v>73</v>
@@ -2584,7 +2584,7 @@
         <v>21</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2592,10 +2592,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>25</v>
@@ -2607,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>97</v>
+        <v>271</v>
       </c>
       <c r="H31" s="31" t="s">
         <v>73</v>
@@ -2616,7 +2616,7 @@
         <v>22</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2624,10 +2624,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>25</v>
@@ -2639,7 +2639,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>97</v>
+        <v>271</v>
       </c>
       <c r="H32" s="31" t="s">
         <v>73</v>
@@ -2648,7 +2648,7 @@
         <v>23</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2656,10 +2656,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>25</v>
@@ -2671,7 +2671,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>97</v>
+        <v>271</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>73</v>
@@ -2680,7 +2680,7 @@
         <v>24</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2709,7 +2709,7 @@
         <v>25</v>
       </c>
       <c r="J34" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2739,7 +2739,7 @@
         <v>26</v>
       </c>
       <c r="J35" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3018,287 +3018,287 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3312,7 +3312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCD7AC8-0B00-4AE6-B93A-3BA741C0C067}">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -3324,242 +3324,242 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3584,12 +3584,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -3597,212 +3597,212 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
